--- a/Data/Results/10Yr_Annuals.xlsx
+++ b/Data/Results/10Yr_Annuals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>2020</t>
   </si>
@@ -55,9 +55,18 @@
     <t>ADBE</t>
   </si>
   <si>
+    <t>AMD</t>
+  </si>
+  <si>
     <t>AKAM</t>
   </si>
   <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
     <t>ADSK</t>
   </si>
   <si>
@@ -73,15 +82,24 @@
     <t>CHTR</t>
   </si>
   <si>
+    <t>DLR</t>
+  </si>
+  <si>
     <t>DISH</t>
   </si>
   <si>
+    <t>FLT</t>
+  </si>
+  <si>
     <t>IBM</t>
   </si>
   <si>
     <t>INTU</t>
   </si>
   <si>
+    <t>LRCX</t>
+  </si>
+  <si>
     <t>MU</t>
   </si>
   <si>
@@ -100,21 +118,33 @@
     <t>SBAC</t>
   </si>
   <si>
+    <t>SSNC</t>
+  </si>
+  <si>
     <t>TTWO</t>
   </si>
   <si>
+    <t>TXN</t>
+  </si>
+  <si>
     <t>TMUS</t>
   </si>
   <si>
     <t>VIAC</t>
   </si>
   <si>
+    <t>ZNGA</t>
+  </si>
+  <si>
     <t>EMR</t>
   </si>
   <si>
     <t>SBGI</t>
   </si>
   <si>
+    <t>IHRT</t>
+  </si>
+  <si>
     <t>EBAY</t>
   </si>
   <si>
@@ -127,6 +157,9 @@
     <t>CMCSA</t>
   </si>
   <si>
+    <t>KMX</t>
+  </si>
+  <si>
     <t>ODP</t>
   </si>
   <si>
@@ -143,6 +176,9 @@
   </si>
   <si>
     <t>FYBR</t>
+  </si>
+  <si>
+    <t>CNSL</t>
   </si>
   <si>
     <t>CALX</t>
@@ -554,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,34 +636,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +671,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +706,34 @@
         <v>13</v>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +741,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -743,31 +779,31 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,31 +811,31 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -810,34 +846,34 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +881,34 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +916,34 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +951,34 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,31 +986,31 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -985,34 +1021,34 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1056,34 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,28 +1091,28 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1090,34 +1126,34 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>2</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>14</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1161,34 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1196,34 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>9</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1231,34 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>10</v>
       </c>
-      <c r="F19">
-        <v>19</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
       <c r="H19">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1266,34 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1301,34 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1336,34 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1371,34 @@
         <v>32</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1406,34 @@
         <v>33</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I24">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K24">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1441,34 @@
         <v>34</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1476,34 @@
         <v>35</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
         <v>11</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>16</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1511,34 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,19 +1546,19 @@
         <v>37</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>9</v>
@@ -1531,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1581,34 @@
         <v>38</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I29">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1616,34 @@
         <v>39</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H30">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J30">
+        <v>6</v>
+      </c>
+      <c r="K30">
         <v>11</v>
-      </c>
-      <c r="K30">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1651,34 @@
         <v>40</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>9</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1686,34 @@
         <v>41</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1721,34 @@
         <v>42</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
         <v>13</v>
-      </c>
-      <c r="J33">
-        <v>17</v>
-      </c>
-      <c r="K33">
-        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1756,34 @@
         <v>43</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1791,34 @@
         <v>44</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
         <v>2</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1826,34 @@
         <v>45</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1861,34 @@
         <v>46</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1896,34 @@
         <v>47</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>14</v>
+      </c>
+      <c r="G38">
         <v>13</v>
       </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>13</v>
-      </c>
-      <c r="F38">
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+      <c r="J38">
         <v>16</v>
       </c>
-      <c r="G38">
-        <v>17</v>
-      </c>
-      <c r="H38">
-        <v>15</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
       <c r="K38">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1931,34 @@
         <v>48</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1966,34 @@
         <v>49</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I40">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K40">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +2001,34 @@
         <v>50</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K41">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +2036,34 @@
         <v>51</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,34 +2071,34 @@
         <v>52</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+      <c r="K43">
         <v>2</v>
-      </c>
-      <c r="F43">
-        <v>7</v>
-      </c>
-      <c r="G43">
-        <v>16</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2070,34 +2106,34 @@
         <v>53</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G44">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K44">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2105,34 +2141,34 @@
         <v>54</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
         <v>11</v>
       </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
-      <c r="E45">
-        <v>12</v>
-      </c>
-      <c r="F45">
-        <v>12</v>
-      </c>
       <c r="G45">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K45">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2140,34 +2176,34 @@
         <v>55</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2175,34 +2211,34 @@
         <v>56</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H47">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I47">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2210,34 +2246,34 @@
         <v>57</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="I48">
         <v>2</v>
       </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
       <c r="J48">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2248,31 +2284,31 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
         <v>2</v>
       </c>
-      <c r="I49">
-        <v>6</v>
-      </c>
       <c r="J49">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2280,34 +2316,34 @@
         <v>59</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50">
+        <v>19</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50">
         <v>2</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>6</v>
-      </c>
       <c r="J50">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2315,34 +2351,454 @@
         <v>60</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>7</v>
+      </c>
+      <c r="H51">
+        <v>12</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>16</v>
+      </c>
+      <c r="F52">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>15</v>
+      </c>
+      <c r="K52">
         <v>2</v>
       </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>5</v>
-      </c>
-      <c r="J51">
-        <v>4</v>
-      </c>
-      <c r="K51">
-        <v>3</v>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>7</v>
+      </c>
+      <c r="K53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>17</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>15</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>17</v>
+      </c>
+      <c r="I56">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="K56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>13</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
+      </c>
+      <c r="H57">
+        <v>14</v>
+      </c>
+      <c r="I57">
+        <v>13</v>
+      </c>
+      <c r="J57">
+        <v>14</v>
+      </c>
+      <c r="K57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>18</v>
+      </c>
+      <c r="G58">
+        <v>18</v>
+      </c>
+      <c r="H58">
+        <v>18</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>11</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>9</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>16</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61">
+        <v>6</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>7</v>
+      </c>
+      <c r="H62">
+        <v>12</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
